--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_142__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_142__Reeval_Sobol_Modell_1.3.xlsx
@@ -6130,7 +6130,7 @@
                   <c:v>77.83441925048828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.615234375</c:v>
+                  <c:v>45.61523056030273</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>62.06940078735352</c:v>
@@ -6157,7 +6157,7 @@
                   <c:v>89.70822906494141</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.42175674438477</c:v>
+                  <c:v>30.4217529296875</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>97.48412322998047</c:v>
@@ -6181,13 +6181,13 @@
                   <c:v>51.85257339477539</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.85076522827148</c:v>
+                  <c:v>31.85076141357422</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53.29478454589844</c:v>
+                  <c:v>53.29478073120117</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.68447494506836</c:v>
+                  <c:v>44.68447875976562</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>84.73206329345703</c:v>
@@ -6205,25 +6205,25 @@
                   <c:v>80.37113952636719</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>77.91049957275391</c:v>
+                  <c:v>77.91050720214844</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>77.66336822509766</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>92.92723083496094</c:v>
+                  <c:v>92.92723846435547</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>82.67226409912109</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>83.22731018066406</c:v>
+                  <c:v>83.22731781005859</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>80.64034271240234</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>63.96694564819336</c:v>
+                  <c:v>63.96694946289062</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>81.92529296875</c:v>
@@ -6235,28 +6235,28 @@
                   <c:v>74.15863037109375</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33.69266128540039</c:v>
+                  <c:v>33.69265747070312</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>73.41458892822266</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>91.60238647460938</c:v>
+                  <c:v>91.60239410400391</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83.87081146240234</c:v>
+                  <c:v>83.87081909179688</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56.00962448120117</c:v>
+                  <c:v>56.00962066650391</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>78.16777038574219</c:v>
+                  <c:v>78.16778564453125</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>77.30567169189453</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>97.26531219482422</c:v>
+                  <c:v>97.26530456542969</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43.66802597045898</c:v>
@@ -6265,16 +6265,16 @@
                   <c:v>82.56393432617188</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.06867408752441</c:v>
+                  <c:v>25.06867218017578</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>65.40266418457031</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>96.65625762939453</c:v>
+                  <c:v>96.65625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>91.62583923339844</c:v>
+                  <c:v>91.62584686279297</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>84.79569244384766</c:v>
@@ -6310,19 +6310,19 @@
                   <c:v>76.77819061279297</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>39.65132904052734</c:v>
+                  <c:v>39.65132522583008</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>76.59869384765625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>90.13910675048828</c:v>
+                  <c:v>90.13909912109375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>85.85889434814453</c:v>
+                  <c:v>85.85890197753906</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>78.71028900146484</c:v>
+                  <c:v>78.71029663085938</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>88.24077606201172</c:v>
@@ -6334,10 +6334,10 @@
                   <c:v>70.77534484863281</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>27.98046112060547</c:v>
+                  <c:v>27.9804573059082</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>89.58930969238281</c:v>
+                  <c:v>89.58931732177734</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>72.5904541015625</c:v>
@@ -6346,7 +6346,7 @@
                   <c:v>89.83476257324219</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>19.7350959777832</c:v>
+                  <c:v>19.7350902557373</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>51.73374557495117</c:v>
@@ -6355,13 +6355,13 @@
                   <c:v>46.08181381225586</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.60467910766602</c:v>
+                  <c:v>53.60467529296875</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>64.55474853515625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81.067626953125</c:v>
+                  <c:v>81.06764221191406</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>88.38663482666016</c:v>
@@ -6391,19 +6391,19 @@
                   <c:v>80.4686279296875</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>83.38155364990234</c:v>
+                  <c:v>83.38153839111328</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>78.70162200927734</c:v>
+                  <c:v>78.70162963867188</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>46.5678596496582</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>74.55110931396484</c:v>
+                  <c:v>74.55111694335938</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>76.96071624755859</c:v>
+                  <c:v>76.96070861816406</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>82.60220336914062</c:v>
@@ -7247,7 +7247,7 @@
         <v>48.7815</v>
       </c>
       <c r="F6">
-        <v>45.615234375</v>
+        <v>45.61523056030273</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7451,7 +7451,7 @@
         <v>38.9871</v>
       </c>
       <c r="F15">
-        <v>30.42175674438477</v>
+        <v>30.4217529296875</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>31.85076522827148</v>
+        <v>31.85076141357422</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>51.853</v>
       </c>
       <c r="F24">
-        <v>53.29478454589844</v>
+        <v>53.29478073120117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>43.7599</v>
       </c>
       <c r="F25">
-        <v>44.68447494506836</v>
+        <v>44.68447875976562</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.5082</v>
       </c>
       <c r="F31">
-        <v>77.91049957275391</v>
+        <v>77.91050720214844</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>90.2206</v>
       </c>
       <c r="F33">
-        <v>92.92723083496094</v>
+        <v>92.92723846435547</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F35">
-        <v>83.22731018066406</v>
+        <v>83.22731781005859</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>69.36790000000001</v>
       </c>
       <c r="F37">
-        <v>63.96694564819336</v>
+        <v>63.96694946289062</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>38.9776</v>
       </c>
       <c r="F41">
-        <v>33.69266128540039</v>
+        <v>33.69265747070312</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>86.46259999999999</v>
       </c>
       <c r="F43">
-        <v>91.60238647460938</v>
+        <v>91.60239410400391</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>83.87081146240234</v>
+        <v>83.87081909179688</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>39.188</v>
       </c>
       <c r="F45">
-        <v>56.00962448120117</v>
+        <v>56.00962066650391</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>72.2573</v>
       </c>
       <c r="F46">
-        <v>78.16777038574219</v>
+        <v>78.16778564453125</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>93.9173</v>
       </c>
       <c r="F48">
-        <v>97.26531219482422</v>
+        <v>97.26530456542969</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>23.918</v>
       </c>
       <c r="F51">
-        <v>25.06867408752441</v>
+        <v>25.06867218017578</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>96.6493</v>
       </c>
       <c r="F53">
-        <v>96.65625762939453</v>
+        <v>96.65625</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.5389</v>
       </c>
       <c r="F54">
-        <v>91.62583923339844</v>
+        <v>91.62584686279297</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>38.8903</v>
       </c>
       <c r="F66">
-        <v>39.65132904052734</v>
+        <v>39.65132522583008</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>89.6302</v>
       </c>
       <c r="F68">
-        <v>90.13910675048828</v>
+        <v>90.13909912109375</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>91.7517</v>
       </c>
       <c r="F69">
-        <v>85.85889434814453</v>
+        <v>85.85890197753906</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>79.62130000000001</v>
       </c>
       <c r="F70">
-        <v>78.71028900146484</v>
+        <v>78.71029663085938</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>25.8506</v>
       </c>
       <c r="F74">
-        <v>27.98046112060547</v>
+        <v>27.9804573059082</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>86.751</v>
       </c>
       <c r="F75">
-        <v>89.58930969238281</v>
+        <v>89.58931732177734</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>19.7350959777832</v>
+        <v>19.7350902557373</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>55.7459</v>
       </c>
       <c r="F81">
-        <v>53.60467910766602</v>
+        <v>53.60467529296875</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>74.2764</v>
       </c>
       <c r="F83">
-        <v>81.067626953125</v>
+        <v>81.06764221191406</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>80.2654</v>
       </c>
       <c r="F93">
-        <v>83.38155364990234</v>
+        <v>83.38153839111328</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>79.09650000000001</v>
       </c>
       <c r="F94">
-        <v>78.70162200927734</v>
+        <v>78.70162963867188</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>65.3784</v>
       </c>
       <c r="F96">
-        <v>74.55110931396484</v>
+        <v>74.55111694335938</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>80.28619999999999</v>
       </c>
       <c r="F97">
-        <v>76.96071624755859</v>
+        <v>76.96070861816406</v>
       </c>
     </row>
     <row r="98" spans="1:6">
